--- a/points_info_drifter.xlsx
+++ b/points_info_drifter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,29 +461,29 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>u_LT</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>v_LT</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>u_OF</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>v_OF</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>u_LT</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>v_LT</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Sat</t>
-        </is>
-      </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
           <t>u_drifter</t>
@@ -532,121 +532,177 @@
       <c r="T1" s="1" t="inlineStr">
         <is>
           <t>drifter_end_lon</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>u_wind_model</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>v_wind_model</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20220502_1130_1430</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>10.08050161361694</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-52.79608831405639</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.97791934967041</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-52.73758924484252</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-0.188846853044298</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-0.09410238928265041</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-0.2259868339256004</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-0.1185927920871311</v>
+          <t>YYYYMMDD_hmod_hmyd</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>sensor</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>m/s</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>m/s</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>m/s</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Goes</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>-0.08630549856346947</v>
-      </c>
-      <c r="L2" t="n">
-        <v>-0.2970007897582625</v>
-      </c>
-      <c r="M2" t="n">
-        <v>39.58354281785238</v>
-      </c>
-      <c r="N2" t="n">
-        <v>60</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>300234067978260</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.942</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-53.129</v>
-      </c>
-      <c r="S2" t="n">
-        <v>9.884</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-53.146</v>
+          <t>m/s</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>m/s</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>m/s</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>km</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>1 = has drogue, 0 = lost drogue</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>m/s</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>m/s</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20220502_1430_1730</t>
+          <t>20220502_1130_1430</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.793043212890625</v>
+        <v>10.08050161361694</v>
       </c>
       <c r="C3" t="n">
-        <v>-53.21111459732056</v>
+        <v>-52.79608831405639</v>
       </c>
       <c r="D3" t="n">
-        <v>9.753249359130859</v>
+        <v>9.97791934967041</v>
       </c>
       <c r="E3" t="n">
-        <v>-52.96230293273926</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.1048331900879189</v>
+        <v>-52.73758924484252</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Goes</t>
+        </is>
       </c>
       <c r="G3" t="n">
-        <v>0.2037779931668882</v>
+        <v>-0.2259868339256004</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.1521577658476653</v>
+        <v>-0.1185927920871311</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1658471425374349</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Goes</t>
-        </is>
+        <v>-0.188846853044298</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.09410238928265041</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.08630549856346947</v>
+        <v>-0.09565</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.2970007897582625</v>
+        <v>-0.29658</v>
       </c>
       <c r="M3" t="n">
-        <v>12.33812226139809</v>
+        <v>39.58354281785238</v>
       </c>
       <c r="N3" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
@@ -654,326 +710,416 @@
       <c r="P3" t="n">
         <v>300234067978260</v>
       </c>
-      <c r="Q3" t="n">
-        <v>9.942</v>
-      </c>
-      <c r="R3" t="n">
-        <v>-53.129</v>
-      </c>
-      <c r="S3" t="n">
-        <v>9.884</v>
-      </c>
-      <c r="T3" t="n">
-        <v>-53.146</v>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>9.942</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>-53.129</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>9.942</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>-53.129</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>-6.456407714843747</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>-4.9761953125</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20220503_1430_1730</t>
+          <t>20220502_1430_1730</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.51634641647339</v>
+        <v>9.793043212890625</v>
       </c>
       <c r="C4" t="n">
-        <v>-59.07199939727784</v>
+        <v>-53.21111459732056</v>
       </c>
       <c r="D4" t="n">
-        <v>12.36230424880981</v>
+        <v>9.753249359130859</v>
       </c>
       <c r="E4" t="n">
-        <v>-58.95455842971802</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-0.1259703437487284</v>
+        <v>-52.96230293273926</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Goes</t>
+        </is>
       </c>
       <c r="G4" t="n">
-        <v>-0.2033715998684918</v>
+        <v>-0.1521577658476653</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.08498662783775801</v>
+        <v>0.1658471425374349</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.186010996500651</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Goes</t>
-        </is>
+        <v>-0.1048331900879189</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2037779931668882</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0604135655982129</v>
+        <v>-0.12694</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.05121544283765711</v>
+        <v>-0.16632</v>
       </c>
       <c r="M4" t="n">
-        <v>20.26498927989662</v>
+        <v>12.33812226139809</v>
       </c>
       <c r="N4" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>300234067874250</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>12.388</v>
-      </c>
-      <c r="R4" t="n">
-        <v>-58.939</v>
-      </c>
-      <c r="S4" t="n">
-        <v>12.378</v>
-      </c>
-      <c r="T4" t="n">
-        <v>-58.927</v>
+        <v>300234067978260</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>9.884</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>-53.146</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>9.884</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>-53.146</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>-6.50593896484375</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>-5.02747265625</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20220505_1030_1330</t>
+          <t>20220503_1430_1730</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.25364276885986</v>
+        <v>12.51634641647339</v>
       </c>
       <c r="C5" t="n">
-        <v>-58.8412739145961</v>
+        <v>-59.07199939727784</v>
       </c>
       <c r="D5" t="n">
-        <v>10.05527648925781</v>
+        <v>12.36230424880981</v>
       </c>
       <c r="E5" t="n">
-        <v>-58.80977889300434</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-0.4730848029807762</v>
+        <v>-58.95455842971802</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Goes</t>
+        </is>
       </c>
       <c r="G5" t="n">
-        <v>-0.1895407835642497</v>
+        <v>-0.08498662783775801</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.3923249919949534</v>
+        <v>-0.186010996500651</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2435985577651878</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Modis</t>
-        </is>
+        <v>-0.1259703437487284</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.2033715998684918</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.1724695957674016</v>
+        <v>0.00186</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1587447757802929</v>
+        <v>0.03836</v>
       </c>
       <c r="M5" t="n">
-        <v>4.541301097776585</v>
+        <v>20.26498927989662</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>300234066438000</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>10.208</v>
-      </c>
-      <c r="R5" t="n">
-        <v>-58.846</v>
-      </c>
-      <c r="S5" t="n">
-        <v>10.239</v>
-      </c>
-      <c r="T5" t="n">
-        <v>-58.88</v>
+        <v>300234067874250</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>12.388</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>-58.939</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>12.388</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>-58.939</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>-7.424661621093749</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>-1.6241351318359376</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20220509_1430_1730</t>
+          <t>20220505_1030_1330</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.27732984542847</v>
+        <v>10.25364276885986</v>
       </c>
       <c r="C6" t="n">
-        <v>-62.51711315155029</v>
+        <v>-58.8412739145961</v>
       </c>
       <c r="D6" t="n">
-        <v>19.27802829742432</v>
+        <v>10.05527648925781</v>
       </c>
       <c r="E6" t="n">
-        <v>-62.51697864532471</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-0.1425898295861703</v>
+        <v>-58.80977889300434</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Modis</t>
+        </is>
       </c>
       <c r="G6" t="n">
-        <v>0.2270943367922748</v>
+        <v>-0.3923249919949534</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.02987155207881221</v>
+        <v>-0.2435985577651878</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2608232144956235</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Goes</t>
-        </is>
+        <v>-0.4730848029807762</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.1895407835642497</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.2143256350827294</v>
+        <v>-0.24256</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1383671334571071</v>
+        <v>0.13668</v>
       </c>
       <c r="M6" t="n">
-        <v>19.06708233428332</v>
+        <v>4.541301097776585</v>
       </c>
       <c r="N6" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>300534061295890</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>19.123</v>
-      </c>
-      <c r="R6" t="n">
-        <v>-62.351</v>
-      </c>
-      <c r="S6" t="n">
-        <v>19.15</v>
-      </c>
-      <c r="T6" t="n">
-        <v>-62.395</v>
+        <v>300234066438000</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>10.239</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>-58.88</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>10.239</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>-58.88</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>-6.644145874023436</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>-0.8301724853515636</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20220511_1030_1330</t>
+          <t>20220509_1430_1730</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.70101680755615</v>
+        <v>19.27732984542847</v>
       </c>
       <c r="C7" t="n">
-        <v>-59.49240986730489</v>
+        <v>-62.51711315155029</v>
       </c>
       <c r="D7" t="n">
-        <v>12.88434580802917</v>
+        <v>19.27802829742432</v>
       </c>
       <c r="E7" t="n">
-        <v>-59.3894198720186</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-0.1729454817595305</v>
+        <v>-62.51697864532471</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Goes</t>
+        </is>
       </c>
       <c r="G7" t="n">
-        <v>-0.2367630932066176</v>
+        <v>-0.02987155207881221</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.1766796612445219</v>
+        <v>0.2608232144956235</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2482341910585945</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Modis</t>
-        </is>
+        <v>-0.1425898295861703</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.2270943367922748</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05030364128668708</v>
+        <v>-0.13669</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1638922462695069</v>
+        <v>0.16101</v>
       </c>
       <c r="M7" t="n">
-        <v>23.39643159314864</v>
+        <v>19.06708233428332</v>
       </c>
       <c r="N7" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="O7" t="n">
         <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>300234067874250</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="R7" t="n">
-        <v>-59.706</v>
-      </c>
-      <c r="S7" t="n">
-        <v>12.632</v>
-      </c>
-      <c r="T7" t="n">
-        <v>-59.696</v>
+        <v>300534061295890</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>19.15</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>-62.395</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>19.15</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>-62.395</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>-6.004197387695313</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>0.03257324218749569</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20220513_1030_1330</t>
+          <t>20220511_1030_1330</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.46185037612915</v>
+        <v>12.70101680755615</v>
       </c>
       <c r="C8" t="n">
-        <v>-59.18693530802204</v>
+        <v>-59.49240986730489</v>
       </c>
       <c r="D8" t="n">
-        <v>12.98618607759476</v>
+        <v>12.88434580802917</v>
       </c>
       <c r="E8" t="n">
-        <v>-59.02027778400909</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-0.3412974543041653</v>
+        <v>-59.3894198720186</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Modis</t>
+        </is>
       </c>
       <c r="G8" t="n">
-        <v>-0.3393769043463248</v>
+        <v>-0.1766796612445219</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.2651990784539117</v>
+        <v>-0.2482341910585945</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3406313576816041</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Modis</t>
-        </is>
+        <v>-0.1729454817595305</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.2367630932066176</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03519153992411752</v>
+        <v>0.06911</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3533972144961904</v>
+        <v>0.20383</v>
       </c>
       <c r="M8" t="n">
-        <v>48.28394744101131</v>
+        <v>23.39643159314864</v>
       </c>
       <c r="N8" t="n">
         <v>360</v>
@@ -984,131 +1130,167 @@
       <c r="P8" t="n">
         <v>300234067874250</v>
       </c>
-      <c r="Q8" t="n">
-        <v>12.753</v>
-      </c>
-      <c r="R8" t="n">
-        <v>-59.518</v>
-      </c>
-      <c r="S8" t="n">
-        <v>12.822</v>
-      </c>
-      <c r="T8" t="n">
-        <v>-59.511</v>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>12.632</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>-59.696</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>12.632</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>-59.696</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>-7.547432128906248</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0.41789892578124765</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20220515_1430_1730</t>
+          <t>20220513_1030_1330</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.07697534561157</v>
+        <v>12.46185037612915</v>
       </c>
       <c r="C9" t="n">
-        <v>-59.88679239273071</v>
+        <v>-59.18693530802204</v>
       </c>
       <c r="D9" t="n">
-        <v>16.3430114364624</v>
+        <v>12.98618607759476</v>
       </c>
       <c r="E9" t="n">
-        <v>-59.78679573059082</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-0.1269881923993429</v>
+        <v>-59.02027778400909</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Modis</t>
+        </is>
       </c>
       <c r="G9" t="n">
-        <v>0.1631930580845586</v>
+        <v>-0.2651990784539117</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1218994281910084</v>
+        <v>-0.3406313576816041</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1701585275155527</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Goes</t>
-        </is>
+        <v>-0.3412974543041653</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.3393769043463248</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2817705674546466</v>
+        <v>0.01902</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1588230934567156</v>
+        <v>0.19117</v>
       </c>
       <c r="M9" t="n">
-        <v>45.00062838994534</v>
+        <v>48.28394744101131</v>
       </c>
       <c r="N9" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="O9" t="n">
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>300534060385940</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>16.478</v>
-      </c>
-      <c r="R9" t="n">
-        <v>-59.817</v>
-      </c>
-      <c r="S9" t="n">
-        <v>16.509</v>
-      </c>
-      <c r="T9" t="n">
-        <v>-59.76</v>
+        <v>300234067874250</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>12.753</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>-59.518</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>12.753</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>-59.518</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>-8.767020263671874</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>-2.0385397949218746</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20220516_1130_1430</t>
+          <t>20220515_1430_1730</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.34124092102051</v>
+        <v>16.07697534561157</v>
       </c>
       <c r="C10" t="n">
-        <v>-59.65817272186279</v>
+        <v>-59.88679239273071</v>
       </c>
       <c r="D10" t="n">
-        <v>16.20720569610596</v>
+        <v>16.3430114364624</v>
       </c>
       <c r="E10" t="n">
-        <v>-59.55108722686768</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.08797431985537212</v>
+        <v>-59.78679573059082</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Goes</t>
+        </is>
       </c>
       <c r="G10" t="n">
-        <v>-0.1612681481573317</v>
+        <v>-0.1218994281910084</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05750208725163966</v>
+        <v>0.1701585275155527</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1585893277768735</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Goes</t>
-        </is>
+        <v>-0.1269881923993429</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.1631930580845586</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1581495999555712</v>
+        <v>0.25602</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.2049332293350458</v>
+        <v>0.1696</v>
       </c>
       <c r="M10" t="n">
-        <v>18.61473328640096</v>
+        <v>45.00062838994534</v>
       </c>
       <c r="N10" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="O10" t="n">
         <v>1</v>
@@ -1116,65 +1298,83 @@
       <c r="P10" t="n">
         <v>300534060385940</v>
       </c>
-      <c r="Q10" t="n">
-        <v>16.524</v>
-      </c>
-      <c r="R10" t="n">
-        <v>-59.598</v>
-      </c>
-      <c r="S10" t="n">
-        <v>16.484</v>
-      </c>
-      <c r="T10" t="n">
-        <v>-59.566</v>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>16.478</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>-59.817</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>16.478</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>-59.817</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>-7.887362670898439</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0.058073974609376744</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20220516_1430_1730</t>
+          <t>20220516_1130_1430</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.3332963180542</v>
+        <v>16.34124092102051</v>
       </c>
       <c r="C11" t="n">
-        <v>-59.31890882492065</v>
+        <v>-59.65817272186279</v>
       </c>
       <c r="D11" t="n">
-        <v>15.55773723602295</v>
+        <v>16.20720569610596</v>
       </c>
       <c r="E11" t="n">
-        <v>-59.15366178512573</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.11526710457272</v>
+        <v>-59.55108722686768</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Goes</t>
+        </is>
       </c>
       <c r="G11" t="n">
-        <v>-0.1472055470501935</v>
+        <v>0.05750208725163966</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.1875925652774763</v>
+        <v>-0.1585893277768735</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1190484600302614</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Goes</t>
-        </is>
+        <v>0.08797431985537212</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.1612681481573317</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1581495999555712</v>
+        <v>0.11353</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.2049332293350458</v>
+        <v>-0.18028</v>
       </c>
       <c r="M11" t="n">
-        <v>31.22040355900736</v>
+        <v>18.61473328640096</v>
       </c>
       <c r="N11" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="O11" t="n">
         <v>1</v>
@@ -1182,65 +1382,83 @@
       <c r="P11" t="n">
         <v>300534060385940</v>
       </c>
-      <c r="Q11" t="n">
-        <v>16.524</v>
-      </c>
-      <c r="R11" t="n">
-        <v>-59.598</v>
-      </c>
-      <c r="S11" t="n">
-        <v>16.484</v>
-      </c>
-      <c r="T11" t="n">
-        <v>-59.566</v>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>16.484</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>-59.566</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>16.484</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>-59.566</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>-9.441831787109376</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>-0.6244023437499956</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20220518_1130_1430</t>
+          <t>20220516_1430_1730</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15.84720031738281</v>
+        <v>16.3332963180542</v>
       </c>
       <c r="C12" t="n">
-        <v>-59.64748426437378</v>
+        <v>-59.31890882492065</v>
       </c>
       <c r="D12" t="n">
-        <v>15.60197397232056</v>
+        <v>15.55773723602295</v>
       </c>
       <c r="E12" t="n">
-        <v>-59.40265951156616</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.4162584410773383</v>
+        <v>-59.15366178512573</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Goes</t>
+        </is>
       </c>
       <c r="G12" t="n">
-        <v>-0.09652336438496907</v>
+        <v>-0.1875925652774763</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.527074013227298</v>
+        <v>-0.1190484600302614</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.01181920369466146</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Goes</t>
-        </is>
+        <v>-0.11526710457272</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.1472055470501935</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.168302103532337</v>
+        <v>0.11353</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.1536954374953254</v>
+        <v>-0.18028</v>
       </c>
       <c r="M12" t="n">
-        <v>37.36255388407925</v>
+        <v>31.22040355900736</v>
       </c>
       <c r="N12" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="O12" t="n">
         <v>1</v>
@@ -1248,17 +1466,35 @@
       <c r="P12" t="n">
         <v>300534060385940</v>
       </c>
-      <c r="Q12" t="n">
-        <v>16.211</v>
-      </c>
-      <c r="R12" t="n">
-        <v>-59.561</v>
-      </c>
-      <c r="S12" t="n">
-        <v>16.181</v>
-      </c>
-      <c r="T12" t="n">
-        <v>-59.595</v>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>16.484</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>-59.566</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>16.484</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>-59.566</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>-9.441831787109376</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>-0.6244023437499956</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1268,42 +1504,42 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.84712308883667</v>
+        <v>15.84720031738281</v>
       </c>
       <c r="C13" t="n">
-        <v>-59.6475496673584</v>
+        <v>-59.64748426437378</v>
       </c>
       <c r="D13" t="n">
-        <v>15.60198926925659</v>
+        <v>15.60197397232056</v>
       </c>
       <c r="E13" t="n">
-        <v>-59.40258888244629</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.5469049347771539</v>
+        <v>-59.40265951156616</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Goes</t>
+        </is>
       </c>
       <c r="G13" t="n">
-        <v>-0.03236131811583483</v>
+        <v>-0.527074013227298</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.5224409221131124</v>
+        <v>-0.01181920369466146</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.008024109734429253</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Goes</t>
-        </is>
+        <v>-0.4162584410773383</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.09652336438496907</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.168302103532337</v>
+        <v>-0.20467</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.1536954374953254</v>
+        <v>-0.13167</v>
       </c>
       <c r="M13" t="n">
-        <v>37.37205560982932</v>
+        <v>37.36255388407925</v>
       </c>
       <c r="N13" t="n">
         <v>300</v>
@@ -1314,65 +1550,83 @@
       <c r="P13" t="n">
         <v>300534060385940</v>
       </c>
-      <c r="Q13" t="n">
-        <v>16.211</v>
-      </c>
-      <c r="R13" t="n">
-        <v>-59.561</v>
-      </c>
-      <c r="S13" t="n">
-        <v>16.181</v>
-      </c>
-      <c r="T13" t="n">
-        <v>-59.595</v>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>16.181</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>-59.595</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>16.181</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>-59.595</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>-8.473702758789063</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>-1.5523398437500013</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20220518_1430_1730</t>
+          <t>20220518_1130_1430</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.15214359283447</v>
+        <v>15.84712308883667</v>
       </c>
       <c r="C14" t="n">
-        <v>-59.78402643203735</v>
+        <v>-59.6475496673584</v>
       </c>
       <c r="D14" t="n">
-        <v>16.15843524932861</v>
+        <v>15.60198926925659</v>
       </c>
       <c r="E14" t="n">
-        <v>-59.77263442993164</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.6987104150984023</v>
+        <v>-59.40258888244629</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Goes</t>
+        </is>
       </c>
       <c r="G14" t="n">
-        <v>0.03322139106414936</v>
+        <v>-0.5224409221131124</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.7231276476824725</v>
+        <v>-0.008024109734429253</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02703610172978153</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Goes</t>
-        </is>
+        <v>-0.5469049347771539</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-0.03236131811583483</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.168302103532337</v>
+        <v>-0.20467</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.1536954374953254</v>
+        <v>-0.13167</v>
       </c>
       <c r="M14" t="n">
-        <v>20.46613181065031</v>
+        <v>37.37205560982932</v>
       </c>
       <c r="N14" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="O14" t="n">
         <v>1</v>
@@ -1380,62 +1634,80 @@
       <c r="P14" t="n">
         <v>300534060385940</v>
       </c>
-      <c r="Q14" t="n">
-        <v>16.211</v>
-      </c>
-      <c r="R14" t="n">
-        <v>-59.561</v>
-      </c>
-      <c r="S14" t="n">
-        <v>16.181</v>
-      </c>
-      <c r="T14" t="n">
-        <v>-59.595</v>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>16.181</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>-59.595</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>16.181</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>-59.595</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>-8.473702758789063</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>-1.5523398437500013</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20220519_1430_1730</t>
+          <t>20220518_1430_1730</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12.95719702959061</v>
+        <v>16.15214359283447</v>
       </c>
       <c r="C15" t="n">
-        <v>-60.29105757236481</v>
+        <v>-59.78402643203735</v>
       </c>
       <c r="D15" t="n">
-        <v>13.94340351104736</v>
+        <v>16.15843524932861</v>
       </c>
       <c r="E15" t="n">
-        <v>-60.17884983062744</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.3018584957829228</v>
+        <v>-59.77263442993164</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Goes</t>
+        </is>
       </c>
       <c r="G15" t="n">
-        <v>-0.2426055846390901</v>
+        <v>-0.7231276476824725</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.3100344163400156</v>
+        <v>0.02703610172978153</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1519548981278031</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Goes</t>
-        </is>
+        <v>-0.6987104150984023</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.03322139106414936</v>
       </c>
       <c r="K15" t="n">
-        <v>0.06033639455680691</v>
+        <v>-0.20467</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02560836616903202</v>
+        <v>-0.13167</v>
       </c>
       <c r="M15" t="n">
-        <v>46.8215368850676</v>
+        <v>20.46613181065031</v>
       </c>
       <c r="N15" t="n">
         <v>120</v>
@@ -1444,151 +1716,289 @@
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>300234066438000</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>12.719</v>
-      </c>
-      <c r="R15" t="n">
-        <v>-60.663</v>
-      </c>
-      <c r="S15" t="n">
-        <v>12.724</v>
-      </c>
-      <c r="T15" t="n">
-        <v>-60.651</v>
+        <v>300534060385940</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>16.181</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>-59.595</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>16.181</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>-59.595</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>-8.473702758789063</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>-1.5523398437500013</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20220520_1430_1730</t>
+          <t>20220519_1430_1730</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11.08920600891113</v>
+        <v>12.95719702959061</v>
       </c>
       <c r="C16" t="n">
-        <v>-57.282434425354</v>
+        <v>-60.29105757236481</v>
       </c>
       <c r="D16" t="n">
-        <v>10.96075839996338</v>
+        <v>13.94340351104736</v>
       </c>
       <c r="E16" t="n">
-        <v>-57.23743705749511</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.1594126445275766</v>
+        <v>-60.17884983062744</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Goes</t>
+        </is>
       </c>
       <c r="G16" t="n">
-        <v>-0.1954333870499222</v>
+        <v>-0.3100344163400156</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.1283412509494358</v>
+        <v>-0.1519548981278031</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.189356745025258</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Goes</t>
-        </is>
+        <v>-0.3018584957829228</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0.2426055846390901</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.01012814943543669</v>
+        <v>-0.009690000000000001</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.1126611165176736</v>
+        <v>-0.05675</v>
       </c>
       <c r="M16" t="n">
-        <v>40.35871809553348</v>
+        <v>46.8215368850676</v>
       </c>
       <c r="N16" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="O16" t="n">
         <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>300234067978260</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>10.735</v>
-      </c>
-      <c r="R16" t="n">
-        <v>-57.371</v>
-      </c>
-      <c r="S16" t="n">
-        <v>10.713</v>
-      </c>
-      <c r="T16" t="n">
-        <v>-57.373</v>
+        <v>300234066438000</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>12.724</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>-60.651</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>12.724</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>-60.651</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>-7.140303466796876</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>-1.1209742431640612</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20220522_1130_1430</t>
+          <t>20220520_1430_1730</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13.18216960906982</v>
+        <v>11.08920600891113</v>
       </c>
       <c r="C17" t="n">
-        <v>-60.75586483001709</v>
+        <v>-57.282434425354</v>
       </c>
       <c r="D17" t="n">
-        <v>13.38713962554932</v>
+        <v>10.96075839996338</v>
       </c>
       <c r="E17" t="n">
-        <v>-60.73949453353882</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.2214669519000583</v>
+        <v>-57.23743705749511</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Goes</t>
+        </is>
       </c>
       <c r="G17" t="n">
-        <v>0.03582371329819715</v>
+        <v>-0.1283412509494358</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.1643810743167076</v>
+        <v>-0.189356745025258</v>
       </c>
       <c r="I17" t="n">
-        <v>0.09057398195619935</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Goes</t>
-        </is>
+        <v>-0.1594126445275766</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-0.1954333870499222</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.1608039461466716</v>
+        <v>0.02435</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1536520536825215</v>
+        <v>-0.13057</v>
       </c>
       <c r="M17" t="n">
-        <v>43.13754091837402</v>
+        <v>40.35871809553348</v>
       </c>
       <c r="N17" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="O17" t="n">
         <v>1</v>
       </c>
       <c r="P17" t="n">
+        <v>300234067978260</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>10.735</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>-57.371</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>10.735</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>-57.371</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>-7.025031738281248</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>-5.225705200195312</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>20220522_1130_1430</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>13.18216960906982</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-60.75586483001709</v>
+      </c>
+      <c r="D18" t="n">
+        <v>13.38713962554932</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-60.73949453353882</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Goes</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.1643810743167076</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.09057398195619935</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.2214669519000583</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.03582371329819715</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.11632</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.16816</v>
+      </c>
+      <c r="M18" t="n">
+        <v>43.13754091837402</v>
+      </c>
+      <c r="N18" t="n">
+        <v>300</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
         <v>300234066438000</v>
       </c>
-      <c r="Q17" t="n">
-        <v>12.866</v>
-      </c>
-      <c r="R17" t="n">
-        <v>-60.994</v>
-      </c>
-      <c r="S17" t="n">
-        <v>12.896</v>
-      </c>
-      <c r="T17" t="n">
-        <v>-61.026</v>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>12.896</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>-61.026</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>12.896</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>-61.026</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>-7.373818359375003</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>-3.3018206787109365</t>
+        </is>
       </c>
     </row>
   </sheetData>
